--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>CHEQUE 54</t>
+  </si>
+  <si>
+    <t>CARTE X6994 13/10 ARPEGE48338LIBE2</t>
+  </si>
+  <si>
+    <t>CHEQUE 52</t>
+  </si>
+  <si>
+    <t>CHEQUE 53</t>
+  </si>
+  <si>
+    <t>CARTE X6994 04/10 ARPEGE48338LIBE1</t>
   </si>
 </sst>
 </file>
@@ -514,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F55"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1195,10 @@
       <c r="D52" s="6">
         <v>-38.86</v>
       </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7">
+        <v>64686.94</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
@@ -1191,6 +1207,8 @@
         <v>23</v>
       </c>
       <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -1199,6 +1217,8 @@
         <v>24</v>
       </c>
       <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -1207,20 +1227,111 @@
         <v>25</v>
       </c>
       <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43024</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-60</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4">
+        <v>64725.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43020</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-47.96</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4">
+        <v>64785.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43018</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-2799</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4">
+        <v>64833.760000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43013</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43013</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D40"/>
+  <mergeCells count="50">
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
     <mergeCell ref="E36:E40"/>
     <mergeCell ref="F36:F40"/>
     <mergeCell ref="A41:A45"/>
@@ -1228,36 +1339,17 @@
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="E41:E45"/>
     <mergeCell ref="F41:F45"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F46:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
